--- a/Chandrashekaran-annotations/RRD_Q4_2012.xlsx
+++ b/Chandrashekaran-annotations/RRD_Q4_2012.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vm056257\Downloads\Working\PEBU\ML\SubjECTive-QA\Chandrashekaran-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4406B017-A91E-4D2B-9967-614D9BB91FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B746FC0-9251-4C1D-A466-C1C8A23FCFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -540,8 +540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="88.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,6 +605,24 @@
       <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -618,6 +637,24 @@
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -632,6 +669,24 @@
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -646,6 +701,24 @@
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -660,6 +733,24 @@
       <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -674,6 +765,24 @@
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -688,6 +797,24 @@
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -702,6 +829,24 @@
       <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -716,6 +861,24 @@
       <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -730,6 +893,24 @@
       <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -744,6 +925,24 @@
       <c r="D12" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -758,6 +957,24 @@
       <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="300" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -772,6 +989,24 @@
       <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -786,6 +1021,24 @@
       <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -800,8 +1053,26 @@
       <c r="D16" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
@@ -814,8 +1085,26 @@
       <c r="D17" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
@@ -828,8 +1117,26 @@
       <c r="D18" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
@@ -842,8 +1149,26 @@
       <c r="D19" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -855,6 +1180,24 @@
       </c>
       <c r="D20" s="2" t="s">
         <v>50</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
